--- a/Jogos_do_Dia/2024-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.95</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -787,10 +787,10 @@
         <v>1.23</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.95</v>
+        <v>5.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="L4" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>3.42</v>
       </c>
       <c r="S4" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T4" t="n">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1065,10 +1065,10 @@
         <v>1.23</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.4</v>
@@ -1135,10 +1135,10 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
         <v>1.75</v>
@@ -1247,13 +1247,13 @@
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1274,10 +1274,10 @@
         <v>4.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>

--- a/Jogos_do_Dia/2024-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.95</v>
       </c>
       <c r="S2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -739,10 +739,10 @@
         <v>1.63</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AB2" t="n">
         <v>1.56</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>5.25</v>
+        <v>4.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -878,10 +878,10 @@
         <v>2.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB3" t="n">
         <v>1.41</v>
@@ -969,13 +969,13 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="K4" t="n">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -999,7 +999,7 @@
         <v>1.77</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1108,13 +1108,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="M5" t="n">
         <v>1.4</v>
@@ -1135,10 +1135,10 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>1.75</v>
@@ -1247,13 +1247,13 @@
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1274,7 +1274,7 @@
         <v>4.33</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
